--- a/notebooks/am_tram_stations0.xlsx
+++ b/notebooks/am_tram_stations0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1298,12 +1298,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3762168710</t>
+          <t>3308281975</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1313,25 +1313,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sierplein</t>
+          <t>Westwijk</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>POINT (4.827417 52.3548692)</t>
+          <t>POINT (4.8305377 52.2743532)</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.827417</v>
+        <v>4.8305377</v>
       </c>
       <c r="G27" t="n">
-        <v>52.3548692</v>
+        <v>52.2743532</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3308281975</t>
+          <t>721160479</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1346,25 +1346,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Westwijk</t>
+          <t>Burgemeester Fockstraat</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>POINT (4.8305377 52.2743532)</t>
+          <t>POINT (4.8312794 52.3798913)</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.8305377</v>
+        <v>4.8312794</v>
       </c>
       <c r="G28" t="n">
-        <v>52.2743532</v>
+        <v>52.3798913</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>721160479</t>
+          <t>1923365119</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1379,25 +1379,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Burgemeester Fockstraat</t>
+          <t>Sacharovlaan</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>POINT (4.8312794 52.3798913)</t>
+          <t>POINT (4.8323277 52.2821847)</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.8312794</v>
+        <v>4.8323277</v>
       </c>
       <c r="G29" t="n">
-        <v>52.3798913</v>
+        <v>52.2821847</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1923365119</t>
+          <t>764161962</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1412,25 +1412,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sacharovlaan</t>
+          <t>Heemstedestraat</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>POINT (4.8323277 52.2821847)</t>
+          <t>POINT (4.8337504 52.3515095)</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.8323277</v>
+        <v>4.8337504</v>
       </c>
       <c r="G30" t="n">
-        <v>52.2821847</v>
+        <v>52.3515095</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>764161962</t>
+          <t>3296373870</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1445,25 +1445,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Heemstedestraat</t>
+          <t>Station Lelylaan</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>POINT (4.8337504 52.3515095)</t>
+          <t>POINT (4.8337835 52.3579004)</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4.8337504</v>
+        <v>4.8337835</v>
       </c>
       <c r="G31" t="n">
-        <v>52.3515095</v>
+        <v>52.3579004</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3296373870</t>
+          <t>3306520727</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1478,25 +1478,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Station Lelylaan</t>
+          <t>Jan van Galenstraat</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>POINT (4.8337835 52.3579004)</t>
+          <t>POINT (4.8350051 52.3732337)</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.8337835</v>
+        <v>4.8350051</v>
       </c>
       <c r="G32" t="n">
-        <v>52.3579004</v>
+        <v>52.3732337</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3306520727</t>
+          <t>721160537</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1511,25 +1511,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Burgemeester de Vlugtlaan</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>POINT (4.8350051 52.3732337)</t>
+          <t>POINT (4.8372054 52.378963)</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.8350051</v>
+        <v>4.8372054</v>
       </c>
       <c r="G33" t="n">
-        <v>52.3732337</v>
+        <v>52.378963</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>721160537</t>
+          <t>434675414</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1544,30 +1544,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Burgemeester de Vlugtlaan</t>
+          <t>Jan Tooropstraat</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>POINT (4.8372054 52.378963)</t>
+          <t>POINT (4.8377996 52.3708325)</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.8372054</v>
+        <v>4.8377996</v>
       </c>
       <c r="G34" t="n">
-        <v>52.378963</v>
+        <v>52.3708325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6841172670</t>
+          <t>3306520726</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1577,25 +1577,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jan Tooropstraat</t>
+          <t>Jan Voermanstraat</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>POINT (4.837775 52.3708378)</t>
+          <t>POINT (4.8378389 52.3697121)</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.837775</v>
+        <v>4.8378389</v>
       </c>
       <c r="G35" t="n">
-        <v>52.3708378</v>
+        <v>52.3697121</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3306520726</t>
+          <t>4957593819</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1610,25 +1610,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jan Voermanstraat</t>
+          <t>Bovenkerk</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>POINT (4.8378389 52.3697121)</t>
+          <t>POINT (4.8391034 52.2908393)</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4.8378389</v>
+        <v>4.8391034</v>
       </c>
       <c r="G36" t="n">
-        <v>52.3697121</v>
+        <v>52.2908393</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4957593819</t>
+          <t>2020414930</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1643,25 +1643,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bovenkerk</t>
+          <t>Station Sloterdijk</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>POINT (4.8391034 52.2908393)</t>
+          <t>POINT (4.8392172 52.3879696)</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.8391034</v>
+        <v>4.8392172</v>
       </c>
       <c r="G37" t="n">
-        <v>52.2908393</v>
+        <v>52.3879696</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020414930</t>
+          <t>1081322915</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1676,25 +1676,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Derkinderenstraat</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>POINT (4.8392172 52.3879696)</t>
+          <t>POINT (4.8397482 52.3579573)</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.8392172</v>
+        <v>4.8397482</v>
       </c>
       <c r="G38" t="n">
-        <v>52.3879696</v>
+        <v>52.3579573</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1081322915</t>
+          <t>1686005104</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1709,30 +1709,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Derkinderenstraat</t>
+          <t>Delflandlaan</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>POINT (4.8397482 52.3579573)</t>
+          <t>POINT (4.83976 52.351558)</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.8397482</v>
+        <v>4.83976</v>
       </c>
       <c r="G39" t="n">
-        <v>52.3579573</v>
+        <v>52.351558</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6931065247</t>
+          <t>295540833</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1740,23 +1740,27 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Noorddammerlaan</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>POINT (4.8397565 52.3515773)</t>
+          <t>POINT (4.8400481 52.2920559)</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4.8397565</v>
+        <v>4.8400481</v>
       </c>
       <c r="G40" t="n">
-        <v>52.3515773</v>
+        <v>52.2920559</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1686005104</t>
+          <t>3306520722</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1771,25 +1775,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Delflandlaan</t>
+          <t>Admiraal Helfrichstraat</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>POINT (4.83976 52.351558)</t>
+          <t>POINT (4.8438216 52.3694429)</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4.83976</v>
+        <v>4.8438216</v>
       </c>
       <c r="G41" t="n">
-        <v>52.351558</v>
+        <v>52.3694429</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>295540833</t>
+          <t>702260913</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1804,25 +1808,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Noorddammerlaan</t>
+          <t>Bos en Lommerplein</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>POINT (4.8400481 52.2920559)</t>
+          <t>POINT (4.8449335 52.3777823)</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4.8400481</v>
+        <v>4.8449335</v>
       </c>
       <c r="G42" t="n">
-        <v>52.2920559</v>
+        <v>52.3777823</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3306520722</t>
+          <t>3371092710</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1837,25 +1841,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Admiraal Helfrichstraat</t>
+          <t>Westlandgracht</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>POINT (4.8438216 52.3694429)</t>
+          <t>POINT (4.8450157 52.3515947)</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4.8438216</v>
+        <v>4.8450157</v>
       </c>
       <c r="G43" t="n">
-        <v>52.3694429</v>
+        <v>52.3515947</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>702260913</t>
+          <t>293883917</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1870,30 +1874,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bos en Lommerplein</t>
+          <t>Poortwachter</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>POINT (4.8449335 52.3777823)</t>
+          <t>POINT (4.8450525 52.2833338)</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4.8449335</v>
+        <v>4.8450525</v>
       </c>
       <c r="G44" t="n">
-        <v>52.3777823</v>
+        <v>52.2833338</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6930974596</t>
+          <t>4957591538</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1903,25 +1907,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Westlandgracht</t>
+          <t>Handweg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>POINT (4.8450138 52.3516119)</t>
+          <t>POINT (4.8453672 52.2994491)</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4.8450138</v>
+        <v>4.8453672</v>
       </c>
       <c r="G45" t="n">
-        <v>52.3516119</v>
+        <v>52.2994491</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>293883917</t>
+          <t>2941113425</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1936,25 +1940,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Poortwachter</t>
+          <t>Molenwerf</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>POINT (4.8450525 52.2833338)</t>
+          <t>POINT (4.8461556 52.3858895)</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4.8450525</v>
+        <v>4.8461556</v>
       </c>
       <c r="G46" t="n">
-        <v>52.2833338</v>
+        <v>52.3858895</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4957591538</t>
+          <t>3307835922</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1969,25 +1973,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Handweg</t>
+          <t>Erasmusgracht</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>POINT (4.8453672 52.2994491)</t>
+          <t>POINT (4.8469734 52.3763312)</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4.8453672</v>
+        <v>4.8469734</v>
       </c>
       <c r="G47" t="n">
-        <v>52.2994491</v>
+        <v>52.3763312</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2941113425</t>
+          <t>4957591524</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2002,25 +2006,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Molenwerf</t>
+          <t>Station Amstelveen</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>POINT (4.8461556 52.3858895)</t>
+          <t>POINT (4.8477382 52.3013966)</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4.8461556</v>
+        <v>4.8477382</v>
       </c>
       <c r="G48" t="n">
-        <v>52.3858895</v>
+        <v>52.3013966</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3307835922</t>
+          <t>283603496</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2035,25 +2039,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Erasmusgracht</t>
+          <t>Hoofddorpplein</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>POINT (4.8469734 52.3763312)</t>
+          <t>POINT (4.8495922 52.3511681)</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.8469734</v>
+        <v>4.8495922</v>
       </c>
       <c r="G49" t="n">
-        <v>52.3763312</v>
+        <v>52.3511681</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4957591524</t>
+          <t>6841269798</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2068,30 +2072,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Station Amstelveen</t>
+          <t>Mercatorplein</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>POINT (4.8477382 52.3013966)</t>
+          <t>POINT (4.8499792 52.3706818)</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4.8477382</v>
+        <v>4.8499792</v>
       </c>
       <c r="G50" t="n">
-        <v>52.3013966</v>
+        <v>52.3706818</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>761242604</t>
+          <t>9533383353</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2101,25 +2105,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Hoofddorpplein</t>
+          <t>Parklaan</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>POINT (4.8495714 52.3511629)</t>
+          <t>POINT (4.8504873 52.3042535)</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4.8495714</v>
+        <v>4.8504873</v>
       </c>
       <c r="G51" t="n">
-        <v>52.3511629</v>
+        <v>52.3042535</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6841269798</t>
+          <t>4957592436</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2134,25 +2138,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mercatorplein</t>
+          <t>Molenweg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>POINT (4.8499792 52.3706818)</t>
+          <t>POINT (4.8506593 52.3085646)</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4.8499792</v>
+        <v>4.8506593</v>
       </c>
       <c r="G52" t="n">
-        <v>52.3706818</v>
+        <v>52.3085646</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>9533383353</t>
+          <t>3296374053</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2167,25 +2171,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Parklaan</t>
+          <t>Curacaostraat</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>POINT (4.8504873 52.3042535)</t>
+          <t>POINT (4.8506975 52.3586176)</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4.8504873</v>
+        <v>4.8506975</v>
       </c>
       <c r="G53" t="n">
-        <v>52.3042535</v>
+        <v>52.3586176</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4957592436</t>
+          <t>4957592454</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2200,25 +2204,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Molenweg</t>
+          <t>Karselaan</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>POINT (4.8506593 52.3085646)</t>
+          <t>POINT (4.8507838 52.3109438)</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4.8506593</v>
+        <v>4.8507838</v>
       </c>
       <c r="G54" t="n">
-        <v>52.3085646</v>
+        <v>52.3109438</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3296374053</t>
+          <t>434397628</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2233,25 +2237,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Curacaostraat</t>
+          <t>Wiltzanghlaan</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>POINT (4.8506975 52.3586176)</t>
+          <t>POINT (4.8508513 52.3828002)</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4.8506975</v>
+        <v>4.8508513</v>
       </c>
       <c r="G55" t="n">
-        <v>52.3586176</v>
+        <v>52.3828002</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4957592454</t>
+          <t>4957591472</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2266,25 +2270,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Karselaan</t>
+          <t>Jan Wilsbrug</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>POINT (4.8507838 52.3109438)</t>
+          <t>POINT (4.8509865 52.3442966)</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4.8507838</v>
+        <v>4.8509865</v>
       </c>
       <c r="G56" t="n">
-        <v>52.3109438</v>
+        <v>52.3442966</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>434397628</t>
+          <t>290957004</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2299,25 +2303,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wiltzanghlaan</t>
+          <t>Surinameplein</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>POINT (4.8508513 52.3828002)</t>
+          <t>POINT (4.8509943 52.3580728)</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4.8508513</v>
+        <v>4.8509943</v>
       </c>
       <c r="G57" t="n">
-        <v>52.3828002</v>
+        <v>52.3580728</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4957591472</t>
+          <t>293884152</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2332,25 +2336,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jan Wilsbrug</t>
+          <t>Brink</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>POINT (4.8509865 52.3442966)</t>
+          <t>POINT (4.8513367 52.2806292)</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4.8509865</v>
+        <v>4.8513367</v>
       </c>
       <c r="G58" t="n">
-        <v>52.3442966</v>
+        <v>52.2806292</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>290957004</t>
+          <t>3307835928</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2365,25 +2369,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Surinameplein</t>
+          <t>W. Schoutenstraat</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>POINT (4.8509943 52.3580728)</t>
+          <t>POINT (4.8523612 52.3673886)</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4.8509943</v>
+        <v>4.8523612</v>
       </c>
       <c r="G59" t="n">
-        <v>52.3580728</v>
+        <v>52.3673886</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>293884152</t>
+          <t>296999161</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2398,30 +2402,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Brink</t>
+          <t>IJsbaanpad</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>POINT (4.8513367 52.2806292)</t>
+          <t>POINT (4.8524016 52.3411779)</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4.8513367</v>
+        <v>4.8524016</v>
       </c>
       <c r="G60" t="n">
-        <v>52.2806292</v>
+        <v>52.3411779</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4623266147</t>
+          <t>3307636852</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2431,25 +2435,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>W. Schoutenweg</t>
+          <t>Postjesweg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>POINT (4.8523338 52.3673843)</t>
+          <t>POINT (4.8531487 52.3638557)</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4.8523338</v>
+        <v>4.8531487</v>
       </c>
       <c r="G61" t="n">
-        <v>52.3673843</v>
+        <v>52.3638557</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3307835928</t>
+          <t>3307636849</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2464,30 +2468,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>W. Schoutenstraat</t>
+          <t>Corantijnstraat</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>POINT (4.8523612 52.3673886)</t>
+          <t>POINT (4.853247 52.3615937)</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4.8523612</v>
+        <v>4.853247</v>
       </c>
       <c r="G62" t="n">
-        <v>52.3673886</v>
+        <v>52.3615937</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4249280293</t>
+          <t>4957592561</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2497,30 +2501,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>IJsbaanpad</t>
+          <t>Remise Karperweg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>POINT (4.8523781 52.3411758)</t>
+          <t>POINT (4.8534016 52.3475341)</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4.8523781</v>
+        <v>4.8534016</v>
       </c>
       <c r="G63" t="n">
-        <v>52.3411758</v>
+        <v>52.3475341</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6960817829</t>
+          <t>434397629</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2530,30 +2534,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Postjesweg</t>
+          <t>Bos en Lommerweg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>POINT (4.8531209 52.3638543)</t>
+          <t>POINT (4.8539004 52.3811188)</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4.8531209</v>
+        <v>4.8539004</v>
       </c>
       <c r="G64" t="n">
-        <v>52.3638543</v>
+        <v>52.3811188</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4623266146</t>
+          <t>6960792121</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2563,25 +2567,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Corantijnstraat</t>
+          <t>Hoofdweg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>POINT (4.8532169 52.3615939)</t>
+          <t>POINT (4.853975 52.3642479)</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4.8532169</v>
+        <v>4.853975</v>
       </c>
       <c r="G65" t="n">
-        <v>52.3615939</v>
+        <v>52.3642479</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4957592561</t>
+          <t>4249280294</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2596,25 +2600,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Remise Karperweg</t>
+          <t>Jollenpad</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>POINT (4.8534016 52.3475341)</t>
+          <t>POINT (4.8543795 52.3352719)</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4.8534016</v>
+        <v>4.8543795</v>
       </c>
       <c r="G66" t="n">
-        <v>52.3475341</v>
+        <v>52.3352719</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>434397629</t>
+          <t>1351089483</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2629,30 +2633,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Bos en Lommerweg</t>
+          <t>Marco Polostraat</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>POINT (4.8539004 52.3811188)</t>
+          <t>POINT (4.8551084 52.3708621)</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4.8539004</v>
+        <v>4.8551084</v>
       </c>
       <c r="G67" t="n">
-        <v>52.3811188</v>
+        <v>52.3708621</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6960888638</t>
+          <t>295552866</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2662,25 +2666,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Hoofdweg</t>
+          <t>Amsterdamseweg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>POINT (4.853974 52.3642376)</t>
+          <t>POINT (4.8552783 52.3153498)</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4.853974</v>
+        <v>4.8552783</v>
       </c>
       <c r="G68" t="n">
-        <v>52.3642376</v>
+        <v>52.3153498</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4249280294</t>
+          <t>724345254</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2695,25 +2699,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Jollenpad</t>
+          <t>Amstelveenseweg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>POINT (4.8543795 52.3352719)</t>
+          <t>POINT (4.8560802 52.3513581)</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4.8543795</v>
+        <v>4.8560802</v>
       </c>
       <c r="G69" t="n">
-        <v>52.3352719</v>
+        <v>52.3513581</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1351089483</t>
+          <t>4249280297</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2728,25 +2732,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Marco Polostraat</t>
+          <t>Koenenkade</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>POINT (4.8551084 52.3708621)</t>
+          <t>POINT (4.8560952 52.3305598)</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4.8551084</v>
+        <v>4.8560952</v>
       </c>
       <c r="G70" t="n">
-        <v>52.3708621</v>
+        <v>52.3305598</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>295552866</t>
+          <t>4249280292</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2761,25 +2765,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Amsterdamseweg</t>
+          <t>Haarlemmermeerstation</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>POINT (4.8552783 52.3153498)</t>
+          <t>POINT (4.8562313 52.3493132)</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4.8552783</v>
+        <v>4.8562313</v>
       </c>
       <c r="G71" t="n">
-        <v>52.3153498</v>
+        <v>52.3493132</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>724345254</t>
+          <t>4957592307</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2794,25 +2798,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Amstelveenseweg</t>
+          <t>Kalfjeslaan</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>POINT (4.8560802 52.3513581)</t>
+          <t>POINT (4.8564951 52.3214358)</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4.8560802</v>
+        <v>4.8564951</v>
       </c>
       <c r="G72" t="n">
-        <v>52.3513581</v>
+        <v>52.3214358</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>4249280297</t>
+          <t>4957592331</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2827,25 +2831,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Koenenkade</t>
+          <t>Van Nijenrodeweg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>POINT (4.8560952 52.3305598)</t>
+          <t>POINT (4.8565395 52.3274177)</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4.8560952</v>
+        <v>4.8565395</v>
       </c>
       <c r="G73" t="n">
-        <v>52.3305598</v>
+        <v>52.3274177</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>4249280292</t>
+          <t>724344100</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2860,25 +2864,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Haarlemmermeerstation</t>
+          <t>Zeilstraat</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>POINT (4.8562313 52.3493132)</t>
+          <t>POINT (4.8567453 52.351218)</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4.8562313</v>
+        <v>4.8567453</v>
       </c>
       <c r="G74" t="n">
-        <v>52.3493132</v>
+        <v>52.351218</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4957592307</t>
+          <t>502269968</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2893,25 +2897,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Kalfjeslaan</t>
+          <t>Olympisch Stadion</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>POINT (4.8564951 52.3214358)</t>
+          <t>POINT (4.8568368 52.3440249)</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>4.8564951</v>
+        <v>4.8568368</v>
       </c>
       <c r="G75" t="n">
-        <v>52.3214358</v>
+        <v>52.3440249</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4957592331</t>
+          <t>293884357</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2926,25 +2930,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Van Nijenrodeweg</t>
+          <t>Meent</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>POINT (4.8565395 52.3274177)</t>
+          <t>POINT (4.8569707 52.2808905)</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>4.8565395</v>
+        <v>4.8569707</v>
       </c>
       <c r="G76" t="n">
-        <v>52.3274177</v>
+        <v>52.2808905</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>724344100</t>
+          <t>434397631</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2959,25 +2963,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Zeilstraat</t>
+          <t>Karel Doormanstraat</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>POINT (4.8567453 52.351218)</t>
+          <t>POINT (4.8569721 52.3788687)</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4.8567453</v>
+        <v>4.8569721</v>
       </c>
       <c r="G77" t="n">
-        <v>52.351218</v>
+        <v>52.3788687</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>502269968</t>
+          <t>434397633</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2992,25 +2996,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Olympisch Stadion</t>
+          <t>De Rijpstraat</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>POINT (4.8568368 52.3440249)</t>
+          <t>POINT (4.8577243 52.3773555)</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4.8568368</v>
+        <v>4.8577243</v>
       </c>
       <c r="G78" t="n">
-        <v>52.3440249</v>
+        <v>52.3773555</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>293884357</t>
+          <t>418653418</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3025,25 +3029,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Meent</t>
+          <t>Olympiaweg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>POINT (4.8569707 52.2808905)</t>
+          <t>POINT (4.8583402 52.3452652)</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>4.8569707</v>
+        <v>4.8583402</v>
       </c>
       <c r="G79" t="n">
-        <v>52.2808905</v>
+        <v>52.3452652</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>434397631</t>
+          <t>3300514038</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3058,25 +3062,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Karel Doormanstraat</t>
+          <t>Witte de Withstraat</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>POINT (4.8569721 52.3788687)</t>
+          <t>POINT (4.8586095 52.3647872)</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4.8569721</v>
+        <v>4.8586095</v>
       </c>
       <c r="G80" t="n">
-        <v>52.3788687</v>
+        <v>52.3647872</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>434397633</t>
+          <t>434646765</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3091,25 +3095,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>De Rijpstraat</t>
+          <t>Rhijnvis Feithstraat</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>POINT (4.8577243 52.3773555)</t>
+          <t>POINT (4.8596776 52.3588447)</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4.8577243</v>
+        <v>4.8596776</v>
       </c>
       <c r="G81" t="n">
-        <v>52.3773555</v>
+        <v>52.3588447</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>418653418</t>
+          <t>434397637</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3124,30 +3128,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Olympiaweg</t>
+          <t>Admiraal De Ruijterweg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>POINT (4.8583402 52.3452652)</t>
+          <t>POINT (4.8600128 52.371502)</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4.8583402</v>
+        <v>4.8600128</v>
       </c>
       <c r="G82" t="n">
-        <v>52.3452652</v>
+        <v>52.371502</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6960841763</t>
+          <t>724099181</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3157,25 +3161,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Witte de Withstraat</t>
+          <t>VUmc Hoofdingang</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>POINT (4.8586029 52.3648041)</t>
+          <t>POINT (4.8600614 52.3351977)</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4.8586029</v>
+        <v>4.8600614</v>
       </c>
       <c r="G83" t="n">
-        <v>52.3648041</v>
+        <v>52.3351977</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>434646765</t>
+          <t>434614441</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3190,25 +3194,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Rhijnvis Feithstraat</t>
+          <t>Jan Pieter Heijestraat</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>POINT (4.8596776 52.3588447)</t>
+          <t>POINT (4.8624057 52.3647282)</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4.8596776</v>
+        <v>4.8624057</v>
       </c>
       <c r="G84" t="n">
-        <v>52.3588447</v>
+        <v>52.3647282</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>434397637</t>
+          <t>6638921572</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3223,25 +3227,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Admiraal De Ruijterweg</t>
+          <t>Sportlaan</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>POINT (4.8600128 52.371502)</t>
+          <t>POINT (4.863249 52.289791)</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4.8600128</v>
+        <v>4.863249</v>
       </c>
       <c r="G85" t="n">
-        <v>52.371502</v>
+        <v>52.289791</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>724099181</t>
+          <t>1978358503</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3256,25 +3260,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VUmc Hoofdingang</t>
+          <t>Valeriusplein</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>POINT (4.8600614 52.3351977)</t>
+          <t>POINT (4.8632955 52.3531864)</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4.8600614</v>
+        <v>4.8632955</v>
       </c>
       <c r="G86" t="n">
-        <v>52.3351977</v>
+        <v>52.3531864</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>434614441</t>
+          <t>434398865</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3289,25 +3293,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Jan Pieter Heijestraat</t>
+          <t>Willem de Zwijgerlaan</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>POINT (4.8624057 52.3647282)</t>
+          <t>POINT (4.8636349 52.3706925)</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4.8624057</v>
+        <v>4.8636349</v>
       </c>
       <c r="G87" t="n">
-        <v>52.3647282</v>
+        <v>52.3706925</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6638921572</t>
+          <t>305789993</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3322,25 +3326,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Sportlaan</t>
+          <t>Olympiaplein</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>POINT (4.863249 52.289791)</t>
+          <t>POINT (4.8658574 52.3463018)</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4.863249</v>
+        <v>4.8658574</v>
       </c>
       <c r="G88" t="n">
-        <v>52.289791</v>
+        <v>52.3463018</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1978358503</t>
+          <t>1491878698</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3355,25 +3359,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Valeriusplein</t>
+          <t>De Boelelaan/VU</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>POINT (4.8632955 52.3531864)</t>
+          <t>POINT (4.8659833 52.3352308)</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4.8632955</v>
+        <v>4.8659833</v>
       </c>
       <c r="G89" t="n">
-        <v>52.3531864</v>
+        <v>52.3352308</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>434398865</t>
+          <t>293886212</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3388,25 +3392,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Willem de Zwijgerlaan</t>
+          <t>Amstelveen Stadshart</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>POINT (4.8636349 52.3706925)</t>
+          <t>POINT (4.8670933 52.3012694)</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4.8636349</v>
+        <v>4.8670933</v>
       </c>
       <c r="G90" t="n">
-        <v>52.3706925</v>
+        <v>52.3012694</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>305789993</t>
+          <t>434636552</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3421,25 +3425,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Olympiaplein</t>
+          <t>Ten Katestraat</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>POINT (4.8658574 52.3463018)</t>
+          <t>POINT (4.8673314 52.3659077)</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4.8658574</v>
+        <v>4.8673314</v>
       </c>
       <c r="G91" t="n">
-        <v>52.3463018</v>
+        <v>52.3659077</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1491878698</t>
+          <t>3308281969</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3454,25 +3458,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>De Boelelaan/VU</t>
+          <t>Ouderkerkerlaan</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>POINT (4.8659833 52.3352308)</t>
+          <t>POINT (4.8674156 52.2961484)</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4.8659833</v>
+        <v>4.8674156</v>
       </c>
       <c r="G92" t="n">
-        <v>52.3352308</v>
+        <v>52.2961484</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>293886212</t>
+          <t>294091330</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3487,25 +3491,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Amstelveen Stadshart</t>
+          <t>Parnassusweg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>POINT (4.8670933 52.3012694)</t>
+          <t>POINT (4.8686793 52.3382075)</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4.8670933</v>
+        <v>4.8686793</v>
       </c>
       <c r="G93" t="n">
-        <v>52.3012694</v>
+        <v>52.3382075</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>434636552</t>
+          <t>4103562362</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3520,25 +3524,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Ten Katestraat</t>
+          <t>A. J. Ernststraat</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>POINT (4.8673314 52.3659077)</t>
+          <t>POINT (4.8688168 52.3325431)</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4.8673314</v>
+        <v>4.8688168</v>
       </c>
       <c r="G94" t="n">
-        <v>52.3659077</v>
+        <v>52.3325431</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3308281969</t>
+          <t>304965084</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3553,25 +3557,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Ouderkerkerlaan</t>
+          <t>Van Boshuizenstraat</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>POINT (4.8674156 52.2961484)</t>
+          <t>POINT (4.8689764 52.3248943)</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4.8674156</v>
+        <v>4.8689764</v>
       </c>
       <c r="G95" t="n">
-        <v>52.2961484</v>
+        <v>52.3248943</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>294091330</t>
+          <t>304984034</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3586,25 +3590,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Parnassusweg</t>
+          <t>Uilenstede</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>POINT (4.8686793 52.3382075)</t>
+          <t>POINT (4.8691021 52.3212764)</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4.8686793</v>
+        <v>4.8691021</v>
       </c>
       <c r="G96" t="n">
-        <v>52.3382075</v>
+        <v>52.3212764</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4103562362</t>
+          <t>502269979</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3619,25 +3623,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>A. J. Ernststraat</t>
+          <t>Emmastraat</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>POINT (4.8688168 52.3325431)</t>
+          <t>POINT (4.8695155 52.3529363)</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4.8688168</v>
+        <v>4.8695155</v>
       </c>
       <c r="G97" t="n">
-        <v>52.3325431</v>
+        <v>52.3529363</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>304965084</t>
+          <t>3295383111</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3652,25 +3656,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Van Boshuizenstraat</t>
+          <t>Bilderdijkstraat</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>POINT (4.8689764 52.3248943)</t>
+          <t>POINT (4.8698359 52.3708243)</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4.8689764</v>
+        <v>4.8698359</v>
       </c>
       <c r="G98" t="n">
-        <v>52.3248943</v>
+        <v>52.3708243</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>304984034</t>
+          <t>434441260</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3685,25 +3689,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Uilenstede</t>
+          <t>Van Hallstraat</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>POINT (4.8691021 52.3212764)</t>
+          <t>POINT (4.8698541 52.3842644)</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4.8691021</v>
+        <v>4.8698541</v>
       </c>
       <c r="G99" t="n">
-        <v>52.3212764</v>
+        <v>52.3842644</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>502269979</t>
+          <t>6578508136</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3718,25 +3722,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Emmastraat</t>
+          <t>De Clercqstraat</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>POINT (4.8695155 52.3529363)</t>
+          <t>POINT (4.8703967 52.3706445)</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4.8695155</v>
+        <v>4.8703967</v>
       </c>
       <c r="G100" t="n">
-        <v>52.3529363</v>
+        <v>52.3706445</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3295383111</t>
+          <t>3296687013</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3751,25 +3755,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Bilderdijkstraat</t>
+          <t>Cornelis Schuytstraat</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>POINT (4.8698359 52.3708243)</t>
+          <t>POINT (4.8705851 52.3559987)</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4.8698359</v>
+        <v>4.8705851</v>
       </c>
       <c r="G101" t="n">
-        <v>52.3708243</v>
+        <v>52.3559987</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>434441260</t>
+          <t>6639049950</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3784,25 +3788,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Van Hallstraat</t>
+          <t>Kronenburg</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>POINT (4.8698541 52.3842644)</t>
+          <t>POINT (4.8706118 52.3160769)</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4.8698541</v>
+        <v>4.8706118</v>
       </c>
       <c r="G102" t="n">
-        <v>52.3842644</v>
+        <v>52.3160769</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>6578508136</t>
+          <t>286610403</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3817,25 +3821,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>De Clercqstraat</t>
+          <t>Oranjebaan</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>POINT (4.8703967 52.3706445)</t>
+          <t>POINT (4.8716334 52.3027943)</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>4.8703967</v>
+        <v>4.8716334</v>
       </c>
       <c r="G103" t="n">
-        <v>52.3706445</v>
+        <v>52.3027943</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3296687013</t>
+          <t>3294946637</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3850,25 +3854,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Cornelis Schuytstraat</t>
+          <t>Kinkerstraat</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>POINT (4.8705851 52.3559987)</t>
+          <t>POINT (4.8719933 52.3674579)</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4.8705851</v>
+        <v>4.8719933</v>
       </c>
       <c r="G104" t="n">
-        <v>52.3559987</v>
+        <v>52.3674579</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>6639049950</t>
+          <t>3307702376</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3883,25 +3887,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Kronenburg</t>
+          <t>Minervaplein</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>POINT (4.8706118 52.3160769)</t>
+          <t>POINT (4.8720137 52.346695)</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>4.8706118</v>
+        <v>4.8720137</v>
       </c>
       <c r="G105" t="n">
-        <v>52.3160769</v>
+        <v>52.346695</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>286610403</t>
+          <t>4103567892</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3916,25 +3920,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Oranjebaan</t>
+          <t>Zonnestein</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>POINT (4.8716334 52.3027943)</t>
+          <t>POINT (4.8722618 52.3121859)</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>4.8716334</v>
+        <v>4.8722618</v>
       </c>
       <c r="G106" t="n">
-        <v>52.3027943</v>
+        <v>52.3121859</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3294946637</t>
+          <t>4103562373</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3949,25 +3953,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Kinkerstraat</t>
+          <t>Onderuit</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>POINT (4.8719933 52.3674579)</t>
+          <t>POINT (4.8724478 52.3079604)</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4.8719933</v>
+        <v>4.8724478</v>
       </c>
       <c r="G107" t="n">
-        <v>52.3674579</v>
+        <v>52.3079604</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3307702376</t>
+          <t>240316874</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3982,25 +3986,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Minervaplein</t>
+          <t>Hugo de Grootplein</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>POINT (4.8720137 52.346695)</t>
+          <t>POINT (4.872531 52.3742987)</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4.8720137</v>
+        <v>4.872531</v>
       </c>
       <c r="G108" t="n">
-        <v>52.346695</v>
+        <v>52.3742987</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>4103567892</t>
+          <t>5162821556</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4015,25 +4019,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Zonnestein</t>
+          <t>Station Zuid</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>POINT (4.8722618 52.3121859)</t>
+          <t>POINT (4.8731849 52.3408165)</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4.8722618</v>
+        <v>4.8731849</v>
       </c>
       <c r="G109" t="n">
-        <v>52.3121859</v>
+        <v>52.3408165</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>4103562373</t>
+          <t>1132284679</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4048,25 +4052,25 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Onderuit</t>
+          <t>Eerste Constantijn Huygensstraat</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>POINT (4.8724478 52.3079604)</t>
+          <t>POINT (4.8747145 52.3626163)</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4.8724478</v>
+        <v>4.8747145</v>
       </c>
       <c r="G110" t="n">
-        <v>52.3079604</v>
+        <v>52.3626163</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>240316874</t>
+          <t>148726445</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4081,25 +4085,25 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Hugo de Grootplein</t>
+          <t>Van Limburg Stirumplein</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>POINT (4.872531 52.3742987)</t>
+          <t>POINT (4.8749198 52.3844185)</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4.872531</v>
+        <v>4.8749198</v>
       </c>
       <c r="G111" t="n">
-        <v>52.3742987</v>
+        <v>52.3844185</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>5162821556</t>
+          <t>3295383115</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4114,25 +4118,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Station Zuid</t>
+          <t>Overtoom/ 1e C. Huygensstraat</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>POINT (4.8731849 52.3408165)</t>
+          <t>POINT (4.8749794 52.363227)</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4.8731849</v>
+        <v>4.8749794</v>
       </c>
       <c r="G112" t="n">
-        <v>52.3408165</v>
+        <v>52.363227</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1132284679</t>
+          <t>240316872</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4147,25 +4151,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Eerste Constantijn Huygensstraat</t>
+          <t>Frederik Hendrikplantsoen</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>POINT (4.8747145 52.3626163)</t>
+          <t>POINT (4.875268 52.3784783)</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4.8747145</v>
+        <v>4.875268</v>
       </c>
       <c r="G113" t="n">
-        <v>52.3626163</v>
+        <v>52.3784783</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>148726445</t>
+          <t>3185460780</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4180,25 +4184,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Van Limburg Stirumplein</t>
+          <t>Marnixstraat</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>POINT (4.8749198 52.3844185)</t>
+          <t>POINT (4.8752838 52.3720538)</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4.8749198</v>
+        <v>4.8752838</v>
       </c>
       <c r="G114" t="n">
-        <v>52.3844185</v>
+        <v>52.3720538</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>3295383115</t>
+          <t>721160612</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4213,30 +4217,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Overtoom/ 1e C. Huygensstraat</t>
+          <t>Rozengracht</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>POINT (4.8749794 52.363227)</t>
+          <t>POINT (4.8758665 52.3726552)</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4.8749794</v>
+        <v>4.8758665</v>
       </c>
       <c r="G115" t="n">
-        <v>52.363227</v>
+        <v>52.3726552</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>6948706658</t>
+          <t>297934761</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4246,25 +4250,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Overtoom</t>
+          <t>Beethovenstraat</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>POINT (4.8750109 52.3632351)</t>
+          <t>POINT (4.8762769 52.3468693)</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4.8750109</v>
+        <v>4.8762769</v>
       </c>
       <c r="G116" t="n">
-        <v>52.3632351</v>
+        <v>52.3468693</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>240316872</t>
+          <t>2300172831</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4279,25 +4283,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Frederik Hendrikplantsoen</t>
+          <t>Bloemgracht</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>POINT (4.875268 52.3784783)</t>
+          <t>POINT (4.8763837 52.3742782)</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4.875268</v>
+        <v>4.8763837</v>
       </c>
       <c r="G117" t="n">
-        <v>52.3784783</v>
+        <v>52.3742782</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3185460780</t>
+          <t>3300150230</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4312,25 +4316,25 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Marnixstraat</t>
+          <t>Prinses Irenestraat</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>POINT (4.8752838 52.3720538)</t>
+          <t>POINT (4.8767749 52.3431074)</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4.8752838</v>
+        <v>4.8767749</v>
       </c>
       <c r="G118" t="n">
-        <v>52.3720538</v>
+        <v>52.3431074</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>721160612</t>
+          <t>3300150225</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4345,25 +4349,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Rozengracht</t>
+          <t>Stadionweg</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>POINT (4.8758665 52.3726552)</t>
+          <t>POINT (4.8768645 52.346674)</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4.8758665</v>
+        <v>4.8768645</v>
       </c>
       <c r="G119" t="n">
-        <v>52.3726552</v>
+        <v>52.346674</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>297934761</t>
+          <t>721160782</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4378,25 +4382,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Beethovenstraat</t>
+          <t>Elandsgracht</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>POINT (4.8762769 52.3468693)</t>
+          <t>POINT (4.8768971 52.368541)</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4.8762769</v>
+        <v>4.8768971</v>
       </c>
       <c r="G120" t="n">
-        <v>52.3468693</v>
+        <v>52.368541</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2300172831</t>
+          <t>434441252</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4411,25 +4415,25 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Bloemgracht</t>
+          <t>De Wittenkade</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>POINT (4.8763837 52.3742782)</t>
+          <t>POINT (4.8770204 52.3832175)</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4.8763837</v>
+        <v>4.8770204</v>
       </c>
       <c r="G121" t="n">
-        <v>52.3742782</v>
+        <v>52.3832175</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3300150230</t>
+          <t>297934763</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4444,25 +4448,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Prinses Irenestraat</t>
+          <t>Gerrit van der Veenstraat</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>POINT (4.8767749 52.3431074)</t>
+          <t>POINT (4.8771911 52.3488198)</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4.8767749</v>
+        <v>4.8771911</v>
       </c>
       <c r="G122" t="n">
-        <v>52.3431074</v>
+        <v>52.3488198</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3300150225</t>
+          <t>3295383118</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4477,25 +4481,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Stadionweg</t>
+          <t>Van Baerlestraat</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>POINT (4.8768645 52.346674)</t>
+          <t>POINT (4.8781266 52.3587793)</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4.8768645</v>
+        <v>4.8781266</v>
       </c>
       <c r="G123" t="n">
-        <v>52.346674</v>
+        <v>52.3587793</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>721160782</t>
+          <t>240316865</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4510,25 +4514,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Elandsgracht</t>
+          <t>Marnixplein</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>POINT (4.8768971 52.368541)</t>
+          <t>POINT (4.8785423 52.3783985)</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4.8768971</v>
+        <v>4.8785423</v>
       </c>
       <c r="G124" t="n">
-        <v>52.368541</v>
+        <v>52.3783985</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>434441252</t>
+          <t>3306416870</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4543,25 +4547,25 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>De Wittenkade</t>
+          <t>Nassaukade</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>POINT (4.8770204 52.3832175)</t>
+          <t>POINT (4.8791525 52.3810685)</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>4.8770204</v>
+        <v>4.8791525</v>
       </c>
       <c r="G125" t="n">
-        <v>52.3832175</v>
+        <v>52.3810685</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>297934763</t>
+          <t>724232633</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4576,25 +4580,25 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Gerrit van der Veenstraat</t>
+          <t>Concertgebouw</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>POINT (4.8771911 52.3488198)</t>
+          <t>POINT (4.8791804 52.3559245)</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4.8771911</v>
+        <v>4.8791804</v>
       </c>
       <c r="G126" t="n">
-        <v>52.3488198</v>
+        <v>52.3559245</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3295383118</t>
+          <t>9081861253</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4609,25 +4613,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Van Baerlestraat</t>
+          <t>Museumplein</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>POINT (4.8781266 52.3587793)</t>
+          <t>POINT (4.8806042 52.3587143)</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>4.8781266</v>
+        <v>4.8806042</v>
       </c>
       <c r="G127" t="n">
-        <v>52.3587793</v>
+        <v>52.3587143</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>240316865</t>
+          <t>1690450992</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4642,25 +4646,25 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Marnixplein</t>
+          <t>Leidseplein</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>POINT (4.8785423 52.3783985)</t>
+          <t>POINT (4.8806933 52.3646825)</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>4.8785423</v>
+        <v>4.8806933</v>
       </c>
       <c r="G128" t="n">
-        <v>52.3783985</v>
+        <v>52.3646825</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>3306416870</t>
+          <t>434560935</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4675,25 +4679,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Nassaukade</t>
+          <t>Nieuwe Willemstraat</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>POINT (4.8791525 52.3810685)</t>
+          <t>POINT (4.8809562 52.381394)</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>4.8791525</v>
+        <v>4.8809562</v>
       </c>
       <c r="G129" t="n">
-        <v>52.3810685</v>
+        <v>52.381394</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>724232633</t>
+          <t>7223761935</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4708,25 +4712,25 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Concertgebouw</t>
+          <t>Roelof Hartplein</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>POINT (4.8791804 52.3559245)</t>
+          <t>POINT (4.8820747 52.3526434)</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>4.8791804</v>
+        <v>4.8820747</v>
       </c>
       <c r="G130" t="n">
-        <v>52.3559245</v>
+        <v>52.3526434</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>9081861253</t>
+          <t>7903232512</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4741,25 +4745,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Museumplein</t>
+          <t>Eerste Marnixdwarsstraat</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>POINT (4.8806042 52.3587143)</t>
+          <t>POINT (4.8821775 52.383238)</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4.8806042</v>
+        <v>4.8821775</v>
       </c>
       <c r="G131" t="n">
-        <v>52.3587143</v>
+        <v>52.383238</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1690450992</t>
+          <t>296020283</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4774,25 +4778,25 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Leidseplein</t>
+          <t>Haarlemmerplein</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>POINT (4.8806933 52.3646825)</t>
+          <t>POINT (4.8835037 52.384972)</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>4.8806933</v>
+        <v>4.8835037</v>
       </c>
       <c r="G132" t="n">
-        <v>52.3646825</v>
+        <v>52.384972</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>434560935</t>
+          <t>724232573</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4807,25 +4811,25 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Nieuwe Willemstraat</t>
+          <t>Westermarkt</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>POINT (4.8809562 52.381394)</t>
+          <t>POINT (4.8837739 52.3740565)</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4.8809562</v>
+        <v>4.8837739</v>
       </c>
       <c r="G133" t="n">
-        <v>52.381394</v>
+        <v>52.3740565</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>7223761935</t>
+          <t>371265387</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4840,25 +4844,25 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Roelof Hartplein</t>
+          <t>Prinsengracht</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>POINT (4.8820747 52.3526434)</t>
+          <t>POINT (4.8843839 52.3650035)</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>4.8820747</v>
+        <v>4.8843839</v>
       </c>
       <c r="G134" t="n">
-        <v>52.3526434</v>
+        <v>52.3650035</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>7903232512</t>
+          <t>46462976</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4873,25 +4877,25 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Eerste Marnixdwarsstraat</t>
+          <t>Zoutkeetsgracht</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>POINT (4.8821775 52.383238)</t>
+          <t>POINT (4.8851416 52.388084)</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>4.8821775</v>
+        <v>4.8851416</v>
       </c>
       <c r="G135" t="n">
-        <v>52.383238</v>
+        <v>52.388084</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>296020283</t>
+          <t>371265504</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4906,25 +4910,25 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Haarlemmerplein</t>
+          <t>Keizersgracht</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>POINT (4.8835037 52.384972)</t>
+          <t>POINT (4.8863435 52.3659309)</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>4.8835037</v>
+        <v>4.8863435</v>
       </c>
       <c r="G136" t="n">
-        <v>52.384972</v>
+        <v>52.3659309</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>724232573</t>
+          <t>241775832</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4939,25 +4943,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Westermarkt</t>
+          <t>Rijksmuseum</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>POINT (4.8837739 52.3740565)</t>
+          <t>POINT (4.887104 52.3609734)</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>4.8837739</v>
+        <v>4.887104</v>
       </c>
       <c r="G137" t="n">
-        <v>52.3740565</v>
+        <v>52.3609734</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>371265387</t>
+          <t>2674999726</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4972,25 +4976,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Prinsengracht</t>
+          <t>Koningsplein</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>POINT (4.8843839 52.3650035)</t>
+          <t>POINT (4.8889206 52.368085)</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>4.8843839</v>
+        <v>4.8889206</v>
       </c>
       <c r="G138" t="n">
-        <v>52.3650035</v>
+        <v>52.368085</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>46462976</t>
+          <t>3294629045</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5005,25 +5009,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Zoutkeetsgracht</t>
+          <t>Drentepark</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>POINT (4.8851416 52.388084)</t>
+          <t>POINT (4.889801 52.3362207)</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>4.8851416</v>
+        <v>4.889801</v>
       </c>
       <c r="G139" t="n">
-        <v>52.388084</v>
+        <v>52.3362207</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>371265504</t>
+          <t>4851477406</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5038,25 +5042,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Keizersgracht</t>
+          <t>De Pijp</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>POINT (4.8863435 52.3659309)</t>
+          <t>POINT (4.8901771 52.3526769)</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4.8863435</v>
+        <v>4.8901771</v>
       </c>
       <c r="G140" t="n">
-        <v>52.3659309</v>
+        <v>52.3526769</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>241775832</t>
+          <t>3157939483</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5071,25 +5075,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Rijksmuseum</t>
+          <t>Dam</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>POINT (4.887104 52.3609734)</t>
+          <t>POINT (4.8901788 52.3731865)</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>4.887104</v>
+        <v>4.8901788</v>
       </c>
       <c r="G141" t="n">
-        <v>52.3609734</v>
+        <v>52.3731865</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2674999726</t>
+          <t>310573230</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5104,25 +5108,25 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Koningsplein</t>
+          <t>Station RAI</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>POINT (4.8889206 52.368085)</t>
+          <t>POINT (4.8905473 52.3369049)</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>4.8889206</v>
+        <v>4.8905473</v>
       </c>
       <c r="G142" t="n">
-        <v>52.368085</v>
+        <v>52.3369049</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>3294629045</t>
+          <t>10273052985</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5137,25 +5141,25 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Drentepark</t>
+          <t>Paleisstraat</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>POINT (4.889801 52.3362207)</t>
+          <t>POINT (4.890644 52.3719008)</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>4.889801</v>
+        <v>4.890644</v>
       </c>
       <c r="G143" t="n">
-        <v>52.3362207</v>
+        <v>52.3719008</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>4851477406</t>
+          <t>4851477407</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5170,25 +5174,25 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>De Pijp</t>
+          <t>Marie Heinekenplein</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>POINT (4.8901771 52.3526769)</t>
+          <t>POINT (4.8907033 52.3570037)</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>4.8901771</v>
+        <v>4.8907033</v>
       </c>
       <c r="G144" t="n">
-        <v>52.3526769</v>
+        <v>52.3570037</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>3157939483</t>
+          <t>285869162</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5203,30 +5207,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Dam</t>
+          <t>Vijzelgracht</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>POINT (4.8901788 52.3731865)</t>
+          <t>POINT (4.8909623 52.3599031)</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4.8901788</v>
+        <v>4.8909623</v>
       </c>
       <c r="G145" t="n">
-        <v>52.3731865</v>
+        <v>52.3599031</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>6658943929</t>
+          <t>3295383116</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5236,25 +5240,25 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Station RAI</t>
+          <t>Scheldestraat</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>POINT (4.8905318 52.3369147)</t>
+          <t>POINT (4.8911566 52.3474774)</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>4.8905318</v>
+        <v>4.8911566</v>
       </c>
       <c r="G146" t="n">
-        <v>52.3369147</v>
+        <v>52.3474774</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>10273052985</t>
+          <t>9611530190</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5269,25 +5273,25 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Paleisstraat</t>
+          <t>v. Hilligaertstraat</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>POINT (4.890644 52.3719008)</t>
+          <t>POINT (4.8914549 52.3494092)</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>4.890644</v>
+        <v>4.8914549</v>
       </c>
       <c r="G147" t="n">
-        <v>52.3719008</v>
+        <v>52.3494092</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>4851477407</t>
+          <t>3294945448</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5302,25 +5306,25 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Marie Heinekenplein</t>
+          <t>Cornelis Troostplein</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>POINT (4.8907033 52.3570037)</t>
+          <t>POINT (4.8915363 52.350302)</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>4.8907033</v>
+        <v>4.8915363</v>
       </c>
       <c r="G148" t="n">
-        <v>52.3570037</v>
+        <v>52.350302</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>285869162</t>
+          <t>2672749411</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5335,25 +5339,25 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Vijzelgracht</t>
+          <t>Rokin</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>POINT (4.8909623 52.3599031)</t>
+          <t>POINT (4.8921252 52.3694572)</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>4.8909623</v>
+        <v>4.8921252</v>
       </c>
       <c r="G149" t="n">
-        <v>52.3599031</v>
+        <v>52.3694572</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>3295383116</t>
+          <t>289364883</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5368,25 +5372,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Scheldestraat</t>
+          <t>Europaplein</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>POINT (4.8911566 52.3474774)</t>
+          <t>POINT (4.8921974 52.3402318)</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4.8911566</v>
+        <v>4.8921974</v>
       </c>
       <c r="G150" t="n">
-        <v>52.3474774</v>
+        <v>52.3402318</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>9611530190</t>
+          <t>7197053237</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5401,25 +5405,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>v. Hilligaertstraat</t>
+          <t>Weteringcircuit</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>POINT (4.8914549 52.3494092)</t>
+          <t>POINT (4.8923379 52.3593327)</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>4.8914549</v>
+        <v>4.8923379</v>
       </c>
       <c r="G151" t="n">
-        <v>52.3494092</v>
+        <v>52.3593327</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3294945448</t>
+          <t>726817850</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5434,25 +5438,25 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Cornelis Troostplein</t>
+          <t>Nieuwezijds Kolk</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>POINT (4.8915363 52.350302)</t>
+          <t>POINT (4.8930014 52.3758615)</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>4.8915363</v>
+        <v>4.8930014</v>
       </c>
       <c r="G152" t="n">
-        <v>52.350302</v>
+        <v>52.3758615</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2672749411</t>
+          <t>310573227</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5467,25 +5471,25 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Rokin</t>
+          <t>Dintelstraat</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>POINT (4.8921252 52.3694572)</t>
+          <t>POINT (4.8930059 52.341925)</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>4.8921252</v>
+        <v>4.8930059</v>
       </c>
       <c r="G153" t="n">
-        <v>52.3694572</v>
+        <v>52.341925</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>289364883</t>
+          <t>4851478923</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5500,25 +5504,25 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Europaplein</t>
+          <t>Muntplein</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>POINT (4.8921974 52.3402318)</t>
+          <t>POINT (4.8930583 52.3658545)</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>4.8921974</v>
+        <v>4.8930583</v>
       </c>
       <c r="G154" t="n">
-        <v>52.3402318</v>
+        <v>52.3658545</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>7197053237</t>
+          <t>3297544663</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5533,30 +5537,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Weteringcircuit</t>
+          <t>Tweede Van der Helststraat</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>POINT (4.8923379 52.3593327)</t>
+          <t>POINT (4.8942153 52.3531905)</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>4.8923379</v>
+        <v>4.8942153</v>
       </c>
       <c r="G155" t="n">
-        <v>52.3593327</v>
+        <v>52.3531905</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>6841904711</t>
+          <t>6659367698</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5566,25 +5570,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Nieuwezijds Kolk</t>
+          <t>Maasstraat</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>POINT (4.8929776 52.3758742)</t>
+          <t>POINT (4.8947303 52.3468163)</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>4.8929776</v>
+        <v>4.8947303</v>
       </c>
       <c r="G156" t="n">
-        <v>52.3758742</v>
+        <v>52.3468163</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>310573227</t>
+          <t>2672987276</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5599,25 +5603,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Dintelstraat</t>
+          <t>Rembrandtplein</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>POINT (4.8930059 52.341925)</t>
+          <t>POINT (4.8964238 52.3662601)</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>4.8930059</v>
+        <v>4.8964238</v>
       </c>
       <c r="G157" t="n">
-        <v>52.341925</v>
+        <v>52.3662601</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>4851478923</t>
+          <t>3303180662</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5632,25 +5636,25 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Muntplein</t>
+          <t>Frederiksplein</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>POINT (4.8930583 52.3658545)</t>
+          <t>POINT (4.8978483 52.3594109)</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4.8930583</v>
+        <v>4.8978483</v>
       </c>
       <c r="G158" t="n">
-        <v>52.3658545</v>
+        <v>52.3594109</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>3297544663</t>
+          <t>310569757</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5665,25 +5669,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Tweede Van der Helststraat</t>
+          <t>Stadhouderskade</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>POINT (4.8942153 52.3531905)</t>
+          <t>POINT (4.8992468 52.3581612)</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>4.8942153</v>
+        <v>4.8992468</v>
       </c>
       <c r="G159" t="n">
-        <v>52.3531905</v>
+        <v>52.3581612</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>6659367698</t>
+          <t>434142269</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5698,25 +5702,25 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Maasstraat</t>
+          <t>Waalstraat</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>POINT (4.8947303 52.3468163)</t>
+          <t>POINT (4.8997164 52.3465631)</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>4.8947303</v>
+        <v>4.8997164</v>
       </c>
       <c r="G160" t="n">
-        <v>52.3468163</v>
+        <v>52.3465631</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2672987276</t>
+          <t>317956000</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5731,25 +5735,25 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Rembrandtplein</t>
+          <t>Van Woustraat</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>POINT (4.8964238 52.3662601)</t>
+          <t>POINT (4.9008616 52.3546903)</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>4.8964238</v>
+        <v>4.9008616</v>
       </c>
       <c r="G161" t="n">
-        <v>52.3662601</v>
+        <v>52.3546903</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>3303180662</t>
+          <t>2673087196</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5764,25 +5768,25 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Frederiksplein</t>
+          <t>Ceintuurbaan</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>POINT (4.8978483 52.3594109)</t>
+          <t>POINT (4.9010669 52.3550346)</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>4.8978483</v>
+        <v>4.9010669</v>
       </c>
       <c r="G162" t="n">
-        <v>52.3594109</v>
+        <v>52.3550346</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>310569757</t>
+          <t>241772055</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5797,25 +5801,25 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Stadhouderskade</t>
+          <t>Waterlooplein</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>POINT (4.8992468 52.3581612)</t>
+          <t>POINT (4.9019846 52.3669934)</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>4.8992468</v>
+        <v>4.9019846</v>
       </c>
       <c r="G163" t="n">
-        <v>52.3581612</v>
+        <v>52.3669934</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>434142269</t>
+          <t>7026721051</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5830,25 +5834,25 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Waalstraat</t>
+          <t>Lutmastraat</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>POINT (4.8997164 52.3465631)</t>
+          <t>POINT (4.903158 52.3517731)</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>4.8997164</v>
+        <v>4.903158</v>
       </c>
       <c r="G164" t="n">
-        <v>52.3465631</v>
+        <v>52.3517731</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>317956000</t>
+          <t>1584103895</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5863,30 +5867,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Van Woustraat</t>
+          <t>Amstelkade</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>POINT (4.9008616 52.3546903)</t>
+          <t>POINT (4.904043 52.34941)</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>4.9008616</v>
+        <v>4.904043</v>
       </c>
       <c r="G165" t="n">
-        <v>52.3546903</v>
+        <v>52.34941</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>4623266155</t>
+          <t>1101710093</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5896,25 +5900,25 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Ceintuurbaan</t>
+          <t>Victorieplein</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>POINT (4.9010451 52.3550281)</t>
+          <t>POINT (4.905072 52.3467733)</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>4.9010451</v>
+        <v>4.905072</v>
       </c>
       <c r="G166" t="n">
-        <v>52.3550281</v>
+        <v>52.3467733</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>241772055</t>
+          <t>46369643</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5929,30 +5933,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Waterlooplein</t>
+          <t>Meester Visserplein</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>POINT (4.9019846 52.3669934)</t>
+          <t>POINT (4.9053602 52.3679611)</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>4.9019846</v>
+        <v>4.9053602</v>
       </c>
       <c r="G167" t="n">
-        <v>52.3669934</v>
+        <v>52.3679611</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>7026721052</t>
+          <t>427560648</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5962,30 +5966,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Lutmastraat</t>
+          <t>Weesperplein</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>POINT (4.9031286 52.3517697)</t>
+          <t>POINT (4.9071213 52.3610021)</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>4.9031286</v>
+        <v>4.9071213</v>
       </c>
       <c r="G168" t="n">
-        <v>52.3517697</v>
+        <v>52.3610021</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>7026741144</t>
+          <t>427561909</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5995,25 +5999,25 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Amstelkade</t>
+          <t>Wibautstraat</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>POINT (4.9040188 52.3494066)</t>
+          <t>POINT (4.9093615 52.3572865)</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>4.9040188</v>
+        <v>4.9093615</v>
       </c>
       <c r="G169" t="n">
-        <v>52.3494066</v>
+        <v>52.3572865</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1101710093</t>
+          <t>434509970</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6028,25 +6032,25 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Victorieplein</t>
+          <t>Artis</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>POINT (4.905072 52.3467733)</t>
+          <t>POINT (4.910955 52.3667187)</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>4.905072</v>
+        <v>4.910955</v>
       </c>
       <c r="G170" t="n">
-        <v>52.3467733</v>
+        <v>52.3667187</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>46369643</t>
+          <t>434142267</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6061,25 +6065,25 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Meester Visserplein</t>
+          <t>Amsteldijk</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>POINT (4.9053602 52.3679611)</t>
+          <t>POINT (4.9109989 52.3471106)</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>4.9053602</v>
+        <v>4.9109989</v>
       </c>
       <c r="G171" t="n">
-        <v>52.3679611</v>
+        <v>52.3471106</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>427560648</t>
+          <t>2674767992</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6094,25 +6098,25 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Weesperplein</t>
+          <t>Muziekgebouw</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>POINT (4.9071213 52.3610021)</t>
+          <t>POINT (4.912547 52.3772761)</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>4.9071213</v>
+        <v>4.912547</v>
       </c>
       <c r="G172" t="n">
-        <v>52.3610021</v>
+        <v>52.3772761</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>427561909</t>
+          <t>1262086564</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6127,25 +6131,25 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Wibautstraat</t>
+          <t>Camperstraat</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>POINT (4.9093615 52.3572865)</t>
+          <t>POINT (4.9134821 52.358335)</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>4.9093615</v>
+        <v>4.9134821</v>
       </c>
       <c r="G173" t="n">
-        <v>52.3572865</v>
+        <v>52.358335</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>434509970</t>
+          <t>434441207</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6160,25 +6164,25 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Artis</t>
+          <t>Korte 's-Gravesandestraat</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>POINT (4.910955 52.3667187)</t>
+          <t>POINT (4.9135923 52.3623479)</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4.910955</v>
+        <v>4.9135923</v>
       </c>
       <c r="G174" t="n">
-        <v>52.3667187</v>
+        <v>52.3623479</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>434142267</t>
+          <t>2674521943</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6193,25 +6197,25 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Amsteldijk</t>
+          <t>Plantage Lepellaan</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>POINT (4.9109989 52.3471106)</t>
+          <t>POINT (4.9152768 52.3652225)</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4.9109989</v>
+        <v>4.9152768</v>
       </c>
       <c r="G175" t="n">
-        <v>52.3471106</v>
+        <v>52.3652225</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2674767992</t>
+          <t>434524959</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6226,25 +6230,25 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Muziekgebouw</t>
+          <t>Beukenweg</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>POINT (4.912547 52.3772761)</t>
+          <t>POINT (4.9167422 52.3590732)</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>4.912547</v>
+        <v>4.9167422</v>
       </c>
       <c r="G176" t="n">
-        <v>52.3772761</v>
+        <v>52.3590732</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1262086564</t>
+          <t>6654529709</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6259,25 +6263,25 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Camperstraat</t>
+          <t>Amstelstation</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>POINT (4.9134821 52.358335)</t>
+          <t>POINT (4.9178096 52.3474274)</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4.9134821</v>
+        <v>4.9178096</v>
       </c>
       <c r="G177" t="n">
-        <v>52.358335</v>
+        <v>52.3474274</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>434441207</t>
+          <t>3301289966</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6292,25 +6296,25 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Korte 's-Gravesandestraat</t>
+          <t>Alexanderplein</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>POINT (4.9135923 52.3623479)</t>
+          <t>POINT (4.9185684 52.3633708)</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4.9135923</v>
+        <v>4.9185684</v>
       </c>
       <c r="G178" t="n">
-        <v>52.3623479</v>
+        <v>52.3633708</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2674521943</t>
+          <t>2678427768</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6325,25 +6329,25 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Plantage Lepellaan</t>
+          <t>Kattenburgerstraat</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>POINT (4.9152768 52.3652225)</t>
+          <t>POINT (4.9211099 52.3761672)</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>4.9152768</v>
+        <v>4.9211099</v>
       </c>
       <c r="G179" t="n">
-        <v>52.3652225</v>
+        <v>52.3761672</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>434524959</t>
+          <t>2674521954</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6358,25 +6362,25 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Beukenweg</t>
+          <t>Eerste Van Swindenstraat</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>POINT (4.9167422 52.3590732)</t>
+          <t>POINT (4.9238286 52.3621936)</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>4.9167422</v>
+        <v>4.9238286</v>
       </c>
       <c r="G180" t="n">
-        <v>52.3590732</v>
+        <v>52.3621936</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6654529709</t>
+          <t>3306176728</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6391,25 +6395,25 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Hoogte Kadijk</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>POINT (4.9178096 52.3474274)</t>
+          <t>POINT (4.9242477 52.3666491)</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>4.9178096</v>
+        <v>4.9242477</v>
       </c>
       <c r="G181" t="n">
-        <v>52.3474274</v>
+        <v>52.3666491</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>3301289966</t>
+          <t>3299908041</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6424,25 +6428,25 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Alexanderplein</t>
+          <t>Linnaeusstraat</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>POINT (4.9185684 52.3633708)</t>
+          <t>POINT (4.9249118 52.3599165)</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>4.9185684</v>
+        <v>4.9249118</v>
       </c>
       <c r="G182" t="n">
-        <v>52.3633708</v>
+        <v>52.3599165</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2678427768</t>
+          <t>2674521970</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6457,25 +6461,25 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Kattenburgerstraat</t>
+          <t>Wijttenbachstraat</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>POINT (4.9211099 52.3761672)</t>
+          <t>POINT (4.9250867 52.360259)</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>4.9211099</v>
+        <v>4.9250867</v>
       </c>
       <c r="G183" t="n">
-        <v>52.3761672</v>
+        <v>52.360259</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2674521954</t>
+          <t>304076333</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6490,25 +6494,25 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Eerste Van Swindenstraat</t>
+          <t>Eerste Coehoornstraat</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>POINT (4.9238286 52.3621936)</t>
+          <t>POINT (4.9263002 52.3681426)</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>4.9238286</v>
+        <v>4.9263002</v>
       </c>
       <c r="G184" t="n">
-        <v>52.3621936</v>
+        <v>52.3681426</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>3306176728</t>
+          <t>2674521976</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6523,25 +6527,25 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Hoogte Kadijk</t>
+          <t>Oostpoort</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>POINT (4.9242477 52.3666491)</t>
+          <t>POINT (4.9269018 52.3574383)</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>4.9242477</v>
+        <v>4.9269018</v>
       </c>
       <c r="G185" t="n">
-        <v>52.3666491</v>
+        <v>52.3574383</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>3299908041</t>
+          <t>241392462</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6556,30 +6560,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Linnaeusstraat</t>
+          <t>Pontanusstraat</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>POINT (4.9249118 52.3599165)</t>
+          <t>POINT (4.9272032 52.3659058)</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>4.9249118</v>
+        <v>4.9272032</v>
       </c>
       <c r="G186" t="n">
-        <v>52.3599165</v>
+        <v>52.3659058</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>7191816990</t>
+          <t>237962650</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6589,25 +6593,25 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Wijttenbachstraat</t>
+          <t>Dapperstraat</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>POINT (4.9250583 52.3602514)</t>
+          <t>POINT (4.9289422 52.3609314)</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>4.9250583</v>
+        <v>4.9289422</v>
       </c>
       <c r="G187" t="n">
-        <v>52.3602514</v>
+        <v>52.3609314</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>304076333</t>
+          <t>330028855</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6622,30 +6626,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Eerste Coehoornstraat</t>
+          <t>Eerste Leeghwaterstraat</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>POINT (4.9263002 52.3681426)</t>
+          <t>POINT (4.9293975 52.3700769)</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>4.9263002</v>
+        <v>4.9293975</v>
       </c>
       <c r="G188" t="n">
-        <v>52.3681426</v>
+        <v>52.3700769</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>4621705536</t>
+          <t>434507136</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6655,25 +6659,25 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Oostpoort</t>
+          <t>Hogeweg</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>POINT (4.9268761 52.3574304)</t>
+          <t>POINT (4.9308725 52.353568)</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>4.9268761</v>
+        <v>4.9308725</v>
       </c>
       <c r="G189" t="n">
-        <v>52.3574304</v>
+        <v>52.353568</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>241392462</t>
+          <t>241392441</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6688,25 +6692,25 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Pontanusstraat</t>
+          <t>Zeeburgerdijk</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>POINT (4.9272032 52.3659058)</t>
+          <t>POINT (4.9324425 52.3659327)</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>4.9272032</v>
+        <v>4.9324425</v>
       </c>
       <c r="G190" t="n">
-        <v>52.3659058</v>
+        <v>52.3659327</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>237962650</t>
+          <t>3299908038</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6721,25 +6725,25 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Dapperstraat</t>
+          <t>Muiderpoortstation</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>POINT (4.9289422 52.3609314)</t>
+          <t>POINT (4.9326128 52.3607965)</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>4.9289422</v>
+        <v>4.9326128</v>
       </c>
       <c r="G191" t="n">
-        <v>52.3609314</v>
+        <v>52.3607965</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>330028855</t>
+          <t>305163755</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6754,25 +6758,25 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Eerste Leeghwaterstraat</t>
+          <t>Rietlandpark</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>POINT (4.9293975 52.3700769)</t>
+          <t>POINT (4.9334664 52.3732299)</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>4.9293975</v>
+        <v>4.9334664</v>
       </c>
       <c r="G192" t="n">
-        <v>52.3700769</v>
+        <v>52.3732299</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>434507136</t>
+          <t>2674543283</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6787,25 +6791,25 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Hogeweg</t>
+          <t>Hugo de Vrieslaan</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>POINT (4.9308725 52.353568)</t>
+          <t>POINT (4.934801 52.351066)</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>4.9308725</v>
+        <v>4.934801</v>
       </c>
       <c r="G193" t="n">
-        <v>52.353568</v>
+        <v>52.351066</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>241392441</t>
+          <t>297099562</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6820,25 +6824,25 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Zeeburgerdijk</t>
+          <t>Azartplein</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>POINT (4.9324425 52.3659327)</t>
+          <t>POINT (4.9373223 52.3766133)</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>4.9324425</v>
+        <v>4.9373223</v>
       </c>
       <c r="G194" t="n">
-        <v>52.3659327</v>
+        <v>52.3766133</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>3299908038</t>
+          <t>3011895788</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6853,25 +6857,25 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Muiderpoortstation</t>
+          <t>C. van Eesterenlaan</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>POINT (4.9326128 52.3607965)</t>
+          <t>POINT (4.9381702 52.3734596)</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>4.9326128</v>
+        <v>4.9381702</v>
       </c>
       <c r="G195" t="n">
-        <v>52.3607965</v>
+        <v>52.3734596</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>305163755</t>
+          <t>2987217067</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6886,25 +6890,25 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Rietlandpark</t>
+          <t>Javaplein</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>POINT (4.9334664 52.3732299)</t>
+          <t>POINT (4.9382411 52.3641725)</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>4.9334664</v>
+        <v>4.9382411</v>
       </c>
       <c r="G196" t="n">
-        <v>52.3732299</v>
+        <v>52.3641725</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2674543283</t>
+          <t>695213988</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6919,30 +6923,30 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Hugo de Vrieslaan</t>
+          <t>Kruislaan</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>POINT (4.934801 52.351066)</t>
+          <t>POINT (4.9398853 52.3479273)</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>4.934801</v>
+        <v>4.9398853</v>
       </c>
       <c r="G197" t="n">
-        <v>52.351066</v>
+        <v>52.3479273</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>4621705791</t>
+          <t>434524956</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>stop_position</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6952,25 +6956,25 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Azartplein</t>
+          <t>Molukkenstraat</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>POINT (4.9372894 52.3766104)</t>
+          <t>POINT (4.9401785 52.3617259)</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>4.9372894</v>
+        <v>4.9401785</v>
       </c>
       <c r="G198" t="n">
-        <v>52.3766104</v>
+        <v>52.3617259</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>3011895788</t>
+          <t>3303180666</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6985,25 +6989,25 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>C. van Eesterenlaan</t>
+          <t>Soembawastraat</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>POINT (4.9381702 52.3734596)</t>
+          <t>POINT (4.9433884 52.3621442)</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>4.9381702</v>
+        <v>4.9433884</v>
       </c>
       <c r="G199" t="n">
-        <v>52.3734596</v>
+        <v>52.3621442</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2987217067</t>
+          <t>296266579</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -7018,25 +7022,25 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Javaplein</t>
+          <t>Brinkstraat</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>POINT (4.9382411 52.3641725)</t>
+          <t>POINT (4.9474911 52.3432024)</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>4.9382411</v>
+        <v>4.9474911</v>
       </c>
       <c r="G200" t="n">
-        <v>52.3641725</v>
+        <v>52.3432024</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>695213988</t>
+          <t>434524953</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -7051,25 +7055,25 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Kruislaan</t>
+          <t>Insulindeweg</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>POINT (4.9398853 52.3479273)</t>
+          <t>POINT (4.9476342 52.3647569)</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>4.9398853</v>
+        <v>4.9476342</v>
       </c>
       <c r="G201" t="n">
-        <v>52.3479273</v>
+        <v>52.3647569</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>434524956</t>
+          <t>3303180661</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -7084,25 +7088,25 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Molukkenstraat</t>
+          <t>Flevopark</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>POINT (4.9401785 52.3617259)</t>
+          <t>POINT (4.9510568 52.3652467)</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>4.9401785</v>
+        <v>4.9510568</v>
       </c>
       <c r="G202" t="n">
-        <v>52.3617259</v>
+        <v>52.3652467</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>3303180666</t>
+          <t>2674538480</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -7117,25 +7121,25 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Soembawastraat</t>
+          <t>Arent Krijtsstraat</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>POINT (4.9433884 52.3621442)</t>
+          <t>POINT (4.9546574 52.33957)</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>4.9433884</v>
+        <v>4.9546574</v>
       </c>
       <c r="G203" t="n">
-        <v>52.3621442</v>
+        <v>52.33957</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>296266579</t>
+          <t>6536976363</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -7150,25 +7154,25 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Brinkstraat</t>
+          <t>Diemerbrug</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>POINT (4.9474911 52.3432024)</t>
+          <t>POINT (4.9610512 52.3383458)</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>4.9474911</v>
+        <v>4.9610512</v>
       </c>
       <c r="G204" t="n">
-        <v>52.3432024</v>
+        <v>52.3383458</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>434524953</t>
+          <t>2674855327</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -7183,25 +7187,25 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Insulindeweg</t>
+          <t>Zuiderzeeweg</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>POINT (4.9476342 52.3647569)</t>
+          <t>POINT (4.9616739 52.3719706)</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>4.9476342</v>
+        <v>4.9616739</v>
       </c>
       <c r="G205" t="n">
-        <v>52.3647569</v>
+        <v>52.3719706</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>3303180661</t>
+          <t>3078329917</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -7214,27 +7218,23 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Flevopark</t>
-        </is>
-      </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>POINT (4.9510568 52.3652467)</t>
+          <t>POINT (4.9634834 52.3713049)</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>4.9510568</v>
+        <v>4.9634834</v>
       </c>
       <c r="G206" t="n">
-        <v>52.3652467</v>
+        <v>52.3713049</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2674538480</t>
+          <t>2677256520</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -7249,25 +7249,25 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Arent Krijtsstraat</t>
+          <t>Bob Haarmslaan</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>POINT (4.9546574 52.33957)</t>
+          <t>POINT (4.968548 52.369133)</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>4.9546574</v>
+        <v>4.968548</v>
       </c>
       <c r="G207" t="n">
-        <v>52.33957</v>
+        <v>52.369133</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>6536976363</t>
+          <t>5487043827</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -7282,25 +7282,25 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Diemerbrug</t>
+          <t>Sniep</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>POINT (4.9610512 52.3383458)</t>
+          <t>POINT (4.9697229 52.3364299)</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>4.9610512</v>
+        <v>4.9697229</v>
       </c>
       <c r="G208" t="n">
-        <v>52.3383458</v>
+        <v>52.3364299</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2674855327</t>
+          <t>3078345543</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -7315,25 +7315,25 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Zuiderzeeweg</t>
+          <t>Steigereiland</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>POINT (4.9616739 52.3719706)</t>
+          <t>POINT (4.9799507 52.3632345)</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>4.9616739</v>
+        <v>4.9799507</v>
       </c>
       <c r="G209" t="n">
-        <v>52.3719706</v>
+        <v>52.3632345</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2677256520</t>
+          <t>10607209062</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -7348,25 +7348,25 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Bob Haarmslaan</t>
+          <t>Vennepluimstraat</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>POINT (4.968548 52.369133)</t>
+          <t>POINT (4.9899502 52.3580579)</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>4.968548</v>
+        <v>4.9899502</v>
       </c>
       <c r="G210" t="n">
-        <v>52.369133</v>
+        <v>52.3580579</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>5487043827</t>
+          <t>2677256600</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -7381,25 +7381,25 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Sniep</t>
+          <t>Diemerparklaan</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>POINT (4.9697229 52.3364299)</t>
+          <t>POINT (4.9946247 52.3555154)</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>4.9697229</v>
+        <v>4.9946247</v>
       </c>
       <c r="G211" t="n">
-        <v>52.3364299</v>
+        <v>52.3555154</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>3078345543</t>
+          <t>2678427771</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -7414,25 +7414,25 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Steigereiland</t>
+          <t>Lumièrestraat</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>POINT (4.9799507 52.3632345)</t>
+          <t>POINT (4.9990167 52.3531807)</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>4.9799507</v>
+        <v>4.9990167</v>
       </c>
       <c r="G212" t="n">
-        <v>52.3632345</v>
+        <v>52.3531807</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>10607209062</t>
+          <t>388184245</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Vennepluimstraat</t>
+          <t>IJburg</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>POINT (4.9899502 52.3580579)</t>
+          <t>POINT (5.0049024 52.3511345)</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>4.9899502</v>
+        <v>5.0049024</v>
       </c>
       <c r="G213" t="n">
-        <v>52.3580579</v>
+        <v>52.3511345</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2677256600</t>
+          <t>9807478538</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -7480,25 +7480,25 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Diemerparklaan</t>
+          <t>Centraal Station_B</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>POINT (4.9946247 52.3555154)</t>
+          <t>POINT (4.8987647 52.3785952)</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>4.9946247</v>
+        <v>4.8987647</v>
       </c>
       <c r="G214" t="n">
-        <v>52.3555154</v>
+        <v>52.3785952</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2678427771</t>
+          <t>9982135046</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -7513,117 +7513,18 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Lumièrestraat</t>
+          <t>Centraal Station_A</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>POINT (4.9990167 52.3531807)</t>
+          <t>POINT (4.9009826 52.3777045)</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>4.9990167</v>
+        <v>4.9009826</v>
       </c>
       <c r="G215" t="n">
-        <v>52.3531807</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>388184245</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>IJburg</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>POINT (5.0049024 52.3511345)</t>
-        </is>
-      </c>
-      <c r="F216" t="n">
-        <v>5.0049024</v>
-      </c>
-      <c r="G216" t="n">
-        <v>52.3511345</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>9807478538</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Centraal Station_B</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>POINT (4.8987647 52.3785952)</t>
-        </is>
-      </c>
-      <c r="F217" t="n">
-        <v>4.8987647</v>
-      </c>
-      <c r="G217" t="n">
-        <v>52.3785952</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>9982135046</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Centraal Station_A</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>POINT (4.9009826 52.3777045)</t>
-        </is>
-      </c>
-      <c r="F218" t="n">
-        <v>4.9009826</v>
-      </c>
-      <c r="G218" t="n">
         <v>52.3777045</v>
       </c>
     </row>
